--- a/manual_matches.xlsx
+++ b/manual_matches.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtafoya\Projects\r-camd-eia-crosswalk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\GitHub\camd-eia-crosswalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4CB1F5-9DB9-4C6F-A3F1-8FBE689393F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5701881-2C0F-4BB0-B5D9-1C6435859501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="135" windowWidth="18240" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit_manual_matches" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">plant_id_manual_matches!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">unit_manual_excluded!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">unit_manual_excluded!$A$1:$G$147</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unit_manual_matches!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="336">
   <si>
     <t>CAMD_PLANT_ID</t>
   </si>
@@ -847,6 +847,195 @@
   </si>
   <si>
     <t>Visual match. Namplate (91) and operating year (2003) match between CAMD and EIA-860. (T.Johnson)</t>
+  </si>
+  <si>
+    <t>Tait Electric Generating Station</t>
+  </si>
+  <si>
+    <t>B132</t>
+  </si>
+  <si>
+    <t>RSB1</t>
+  </si>
+  <si>
+    <t>RSB2</t>
+  </si>
+  <si>
+    <t>P049</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>Not grid connected, as identified in table 4-2 of eGRID2020</t>
+  </si>
+  <si>
+    <t>CAMD_UNIT_ID matches EIA_GENERATOR_ID</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>7-STG</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>CAMD_GENERATOR_ID matches EIA_GENERATOR_ID</t>
+  </si>
+  <si>
+    <t>CT0008</t>
+  </si>
+  <si>
+    <t>PHR1</t>
+  </si>
+  <si>
+    <t>PHR2</t>
+  </si>
+  <si>
+    <t>PHR3</t>
+  </si>
+  <si>
+    <t>PHR4</t>
+  </si>
+  <si>
+    <t>**1</t>
+  </si>
+  <si>
+    <t>1SPS15</t>
+  </si>
+  <si>
+    <t>17TG</t>
+  </si>
+  <si>
+    <t>1SPS16</t>
+  </si>
+  <si>
+    <t>1SPS17</t>
+  </si>
+  <si>
+    <t>STG2</t>
+  </si>
+  <si>
+    <t>STG3</t>
+  </si>
+  <si>
+    <t>CTG5</t>
+  </si>
+  <si>
+    <t>CTG6</t>
+  </si>
+  <si>
+    <t>E101</t>
+  </si>
+  <si>
+    <t>STG101</t>
+  </si>
+  <si>
+    <t>E102</t>
+  </si>
+  <si>
+    <t>OCEC1A</t>
+  </si>
+  <si>
+    <t>1ST</t>
+  </si>
+  <si>
+    <t>OCEC1B</t>
+  </si>
+  <si>
+    <t>OCEC1C</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>GT01</t>
+  </si>
+  <si>
+    <t>STG1</t>
+  </si>
+  <si>
+    <t>GT02</t>
+  </si>
+  <si>
+    <t>GT03</t>
+  </si>
+  <si>
+    <t>GT3</t>
+  </si>
+  <si>
+    <t>GT4</t>
+  </si>
+  <si>
+    <t>MGT2</t>
+  </si>
+  <si>
+    <t>GT2</t>
+  </si>
+  <si>
+    <t>Manual fuzzy match of generator ID</t>
+  </si>
+  <si>
+    <t>CTG01</t>
+  </si>
+  <si>
+    <t>CTG02</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>CTG1</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>CT7</t>
+  </si>
+  <si>
+    <t>U001</t>
+  </si>
+  <si>
+    <t>U002</t>
+  </si>
+  <si>
+    <t>U003</t>
+  </si>
+  <si>
+    <t>Matched based on generator ID and prime mover code</t>
+  </si>
+  <si>
+    <t>VC-1</t>
+  </si>
+  <si>
+    <t>VC-2</t>
+  </si>
+  <si>
+    <t>VP-1</t>
+  </si>
+  <si>
+    <t>VP-2</t>
+  </si>
+  <si>
+    <t>CT-03</t>
+  </si>
+  <si>
+    <t>CT-04</t>
+  </si>
+  <si>
+    <t>BHB5</t>
+  </si>
+  <si>
+    <t>Matched based on total net generation</t>
   </si>
 </sst>
 </file>
@@ -1004,6 +1193,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1360,7 +1550,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1411,6 +1601,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1766,10 +1962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3053,7 +3250,1641 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G61" s="1"/>
+      <c r="A61" s="8">
+        <v>389</v>
+      </c>
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+      <c r="D61" s="8">
+        <v>389</v>
+      </c>
+      <c r="F61" s="5">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
+        <v>1363</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D62" s="8">
+        <v>1363</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G62" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>1363</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1363</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G63" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>1393</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>3</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1393</v>
+      </c>
+      <c r="F64" s="5">
+        <v>3</v>
+      </c>
+      <c r="G64" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>1570</v>
+      </c>
+      <c r="B65" s="1">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1570</v>
+      </c>
+      <c r="F65" s="5">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>1570</v>
+      </c>
+      <c r="B66" s="1">
+        <v>9</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="8">
+        <v>1570</v>
+      </c>
+      <c r="F66" s="5">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>1595</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="8">
+        <v>1595</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>1732</v>
+      </c>
+      <c r="B68" s="1">
+        <v>10</v>
+      </c>
+      <c r="C68" s="1">
+        <v>6</v>
+      </c>
+      <c r="D68" s="8">
+        <v>1732</v>
+      </c>
+      <c r="F68" s="5">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>1732</v>
+      </c>
+      <c r="B69" s="1">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6</v>
+      </c>
+      <c r="D69" s="8">
+        <v>1732</v>
+      </c>
+      <c r="F69" s="5">
+        <v>6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
+        <v>1732</v>
+      </c>
+      <c r="B70" s="1">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1">
+        <v>6</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1732</v>
+      </c>
+      <c r="F70" s="5">
+        <v>6</v>
+      </c>
+      <c r="G70" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
+        <v>1732</v>
+      </c>
+      <c r="B71" s="1">
+        <v>9</v>
+      </c>
+      <c r="C71" s="1">
+        <v>6</v>
+      </c>
+      <c r="D71" s="8">
+        <v>1732</v>
+      </c>
+      <c r="F71" s="5">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
+        <v>2070</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8">
+        <v>2070</v>
+      </c>
+      <c r="F72" s="5">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
+        <v>2070</v>
+      </c>
+      <c r="B73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="8">
+        <v>2070</v>
+      </c>
+      <c r="F73" s="5">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
+        <v>2398</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1101</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="8">
+        <v>2398</v>
+      </c>
+      <c r="F74" s="5">
+        <v>1101</v>
+      </c>
+      <c r="G74" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
+        <v>2398</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1201</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="8">
+        <v>2398</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1201</v>
+      </c>
+      <c r="G75" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="8">
+        <v>2398</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1301</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="8">
+        <v>2398</v>
+      </c>
+      <c r="F76" s="5">
+        <v>1301</v>
+      </c>
+      <c r="G76" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
+        <v>2398</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1401</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="8">
+        <v>2398</v>
+      </c>
+      <c r="F77" s="5">
+        <v>1401</v>
+      </c>
+      <c r="G77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
+        <v>2500</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="8">
+        <v>2500</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
+        <v>2527</v>
+      </c>
+      <c r="B79" s="1">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="8">
+        <v>2527</v>
+      </c>
+      <c r="F79" s="5">
+        <v>3</v>
+      </c>
+      <c r="G79" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="8">
+        <v>2594</v>
+      </c>
+      <c r="B80" s="1">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="8">
+        <v>2594</v>
+      </c>
+      <c r="F80" s="5">
+        <v>3</v>
+      </c>
+      <c r="G80" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
+        <v>3176</v>
+      </c>
+      <c r="B81" s="1">
+        <v>6</v>
+      </c>
+      <c r="D81" s="8">
+        <v>3176</v>
+      </c>
+      <c r="F81" s="5">
+        <v>6</v>
+      </c>
+      <c r="G81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>3466</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="8">
+        <v>3466</v>
+      </c>
+      <c r="F82" s="5">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>3466</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" s="1">
+        <v>2</v>
+      </c>
+      <c r="D83" s="8">
+        <v>3466</v>
+      </c>
+      <c r="F83" s="5">
+        <v>2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>3466</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3</v>
+      </c>
+      <c r="D84" s="8">
+        <v>3466</v>
+      </c>
+      <c r="F84" s="5">
+        <v>3</v>
+      </c>
+      <c r="G84" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>3466</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4</v>
+      </c>
+      <c r="D85" s="8">
+        <v>3466</v>
+      </c>
+      <c r="F85" s="5">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
+        <v>3627</v>
+      </c>
+      <c r="B86" s="1">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="D86" s="8">
+        <v>3627</v>
+      </c>
+      <c r="F86" s="5">
+        <v>3</v>
+      </c>
+      <c r="G86" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
+        <v>7063</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="8">
+        <v>7063</v>
+      </c>
+      <c r="F87" s="5">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
+        <v>10803</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" s="8">
+        <v>10803</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G88" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
+        <v>10803</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D89" s="8">
+        <v>10803</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G89" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
+        <v>52130</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D90" s="8">
+        <v>52130</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G90" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
+        <v>52130</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D91" s="8">
+        <v>52130</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G91" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="8">
+        <v>52130</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D92" s="8">
+        <v>52130</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G92" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="8">
+        <v>55518</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D93" s="8">
+        <v>55518</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G93" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="8">
+        <v>55518</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D94" s="8">
+        <v>55518</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="8">
+        <v>55524</v>
+      </c>
+      <c r="B95" s="1">
+        <v>5</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D95" s="8">
+        <v>55524</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G95" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="8">
+        <v>55524</v>
+      </c>
+      <c r="B96" s="1">
+        <v>5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D96" s="8">
+        <v>55524</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G96" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="8">
+        <v>55524</v>
+      </c>
+      <c r="B97" s="1">
+        <v>6</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D97" s="8">
+        <v>55524</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G97" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="8">
+        <v>55524</v>
+      </c>
+      <c r="B98" s="1">
+        <v>6</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D98" s="8">
+        <v>55524</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G98" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="8">
+        <v>56963</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D99" s="8">
+        <v>56963</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G99" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="8">
+        <v>56963</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D100" s="8">
+        <v>56963</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G100" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="8">
+        <v>57842</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" s="8">
+        <v>57842</v>
+      </c>
+      <c r="F101" s="5">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="8">
+        <v>60345</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="8">
+        <v>60345</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G102" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="8">
+        <v>60345</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D103" s="8">
+        <v>60345</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G103" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="8">
+        <v>60345</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" s="8">
+        <v>60345</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G104" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="8">
+        <v>60345</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D105" s="8">
+        <v>60345</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G105" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="8">
+        <v>60345</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D106" s="8">
+        <v>60345</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G106" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="8">
+        <v>60345</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D107" s="8">
+        <v>60345</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G107" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="8">
+        <v>50615</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D108" s="8">
+        <v>50615</v>
+      </c>
+      <c r="F108" t="s">
+        <v>309</v>
+      </c>
+      <c r="G108" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="8">
+        <v>50615</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D109" s="8">
+        <v>50615</v>
+      </c>
+      <c r="F109" t="s">
+        <v>309</v>
+      </c>
+      <c r="G109" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="8">
+        <v>50615</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D110" s="8">
+        <v>50615</v>
+      </c>
+      <c r="F110" t="s">
+        <v>309</v>
+      </c>
+      <c r="G110" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="8">
+        <v>3443</v>
+      </c>
+      <c r="B111" s="1">
+        <v>6</v>
+      </c>
+      <c r="C111" s="1">
+        <v>4</v>
+      </c>
+      <c r="D111" s="8">
+        <v>3443</v>
+      </c>
+      <c r="F111" s="5">
+        <v>4</v>
+      </c>
+      <c r="G111" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="8">
+        <v>2527</v>
+      </c>
+      <c r="B112" s="1">
+        <v>4</v>
+      </c>
+      <c r="C112" s="1">
+        <v>3</v>
+      </c>
+      <c r="D112" s="8">
+        <v>2527</v>
+      </c>
+      <c r="F112" s="5">
+        <v>3</v>
+      </c>
+      <c r="G112" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="8">
+        <v>116</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D113" s="1">
+        <v>116</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="8">
+        <v>116</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D114" s="1">
+        <v>116</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="8">
+        <v>116</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" s="1">
+        <v>116</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="8">
+        <v>116</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116" s="1">
+        <v>116</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" s="1">
+        <v>116</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="8">
+        <v>676</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D118" s="1">
+        <v>676</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="8">
+        <v>60926</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" s="1">
+        <v>60926</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="8">
+        <v>60926</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D120" s="1">
+        <v>60926</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="8">
+        <v>60927</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" s="1">
+        <v>60927</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="8">
+        <v>60927</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D122" s="1">
+        <v>60927</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="8">
+        <v>55486</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D123" s="1">
+        <v>55486</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="8">
+        <v>55486</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D124" s="1">
+        <v>55486</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="8">
+        <v>1599</v>
+      </c>
+      <c r="B125" s="1">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1599</v>
+      </c>
+      <c r="F125" s="8">
+        <v>3</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="8">
+        <v>59882</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D126" s="1">
+        <v>59882</v>
+      </c>
+      <c r="F126" s="8">
+        <v>4</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="8">
+        <v>59882</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D127" s="1">
+        <v>59882</v>
+      </c>
+      <c r="F127" s="8">
+        <v>5</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="8">
+        <v>56104</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D128" s="1">
+        <v>56104</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="8">
+        <v>55218</v>
+      </c>
+      <c r="B129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1">
+        <v>55218</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="8">
+        <v>2706</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D130" s="1">
+        <v>2706</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="8">
+        <v>2706</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D131" s="1">
+        <v>2706</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="8">
+        <v>7277</v>
+      </c>
+      <c r="B132" s="1">
+        <v>17</v>
+      </c>
+      <c r="D132" s="1">
+        <v>7277</v>
+      </c>
+      <c r="F132" s="8">
+        <v>17</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="8">
+        <v>57185</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D133" s="1">
+        <v>57185</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="8">
+        <v>57185</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D134" s="1">
+        <v>57185</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="8">
+        <v>57185</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D135" s="1">
+        <v>57185</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="8">
+        <v>60589</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D136" s="1">
+        <v>60589</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="8">
+        <v>60589</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" s="1">
+        <v>60589</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="8">
+        <v>61035</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>61035</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="8">
+        <v>61028</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="1">
+        <v>61028</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="8">
+        <v>61028</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="1">
+        <v>61028</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="8">
+        <v>61241</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="1">
+        <v>61241</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
+        <v>61241</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="1">
+        <v>61241</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="8">
+        <v>61242</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="1">
+        <v>61242</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="8">
+        <v>61242</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="1">
+        <v>61242</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="8">
+        <v>55641</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D145" s="1">
+        <v>55641</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="8">
+        <v>55641</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D146" s="1">
+        <v>55641</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>568</v>
+      </c>
+      <c r="B147" t="s">
+        <v>334</v>
+      </c>
+      <c r="D147">
+        <v>568</v>
+      </c>
+      <c r="F147">
+        <v>501</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>568</v>
+      </c>
+      <c r="B148" t="s">
+        <v>334</v>
+      </c>
+      <c r="D148">
+        <v>568</v>
+      </c>
+      <c r="F148">
+        <v>502</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>335</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{AA9693D4-94E9-4250-828A-FAABB27742CD}"/>
@@ -3065,15 +4896,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -3082,7 +4913,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3105,99 +4936,81 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1594</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="20">
+        <v>478</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1594</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="20">
+        <v>478</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>1594</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="20">
+        <v>478</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>1594</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="3"/>
       <c r="G5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>1594</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="3"/>
       <c r="G6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>1594</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="1"/>
@@ -3207,14 +5020,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>1594</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="1"/>
@@ -3224,14 +5037,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <v>1594</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="1"/>
@@ -3241,1299 +5054,1584 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>2504</v>
+      <c r="A10" s="7">
+        <v>1594</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1"/>
       <c r="F10" s="5"/>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>2504</v>
+      <c r="A11" s="7">
+        <v>1594</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="1"/>
       <c r="F11" s="5"/>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>2504</v>
+      <c r="A12" s="21">
+        <v>1594</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="1"/>
       <c r="F12" s="5"/>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>2549</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="20">
+        <v>2440</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" t="s">
-        <v>90</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>2549</v>
+      <c r="A14" s="7">
+        <v>2504</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="1"/>
       <c r="F14" s="5"/>
       <c r="G14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>10675</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>81</v>
+      <c r="A15" s="7">
+        <v>2504</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="1"/>
       <c r="F15" s="5"/>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>10675</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>81</v>
+      <c r="A16" s="7">
+        <v>2504</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="1"/>
       <c r="F16" s="5"/>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
+        <v>2549</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="5"/>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>2549</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="5"/>
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>10071</v>
+      </c>
+      <c r="G19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>10111</v>
+      </c>
+      <c r="G20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>10381</v>
+      </c>
+      <c r="G21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>10675</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="5"/>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>10675</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="5"/>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>10788</v>
+      </c>
+      <c r="B24" s="1">
+        <v>612</v>
+      </c>
+      <c r="G24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>50044</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>50151</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>50151</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>50202</v>
+      </c>
+      <c r="G28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>50247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>50607</v>
+      </c>
+      <c r="B30" s="1">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>50607</v>
+      </c>
+      <c r="B31" s="1">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>50607</v>
+      </c>
+      <c r="B32" s="1">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>50607</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>50607</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>54035</v>
+      </c>
+      <c r="G35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>54571</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>54571</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>54755</v>
+      </c>
+      <c r="G38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <v>55098</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>55098</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>55422</v>
+      </c>
+      <c r="G41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>55703</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>880004</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="G43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>880004</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>880004</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="G45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>880004</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="G46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>880004</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="G47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>880004</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="G48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>880004</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="G49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>880006</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="G50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>880006</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="G51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>880006</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="G52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>880006</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>880007</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="G54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>880016</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>880016</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="G56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>880016</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="G57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>880023</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="G58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>880023</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="G59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>880023</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="G60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
         <v>880023</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="G61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>880024</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
         <v>880025</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="G63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>880025</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="G64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>880025</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>880025</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="G66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
         <v>880028</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="G67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>880029</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="G68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>880030</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="G69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
         <v>880030</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="G70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
         <v>880031</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="G71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
         <v>880031</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="G72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
         <v>880033</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="G73" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
         <v>880038</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="G74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
         <v>880039</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="G75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
         <v>880039</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="G76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
         <v>880041</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="G77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
         <v>880041</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="G78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
         <v>880041</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="G79" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
         <v>880042</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="G80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
         <v>880042</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="G81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
         <v>880042</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="G82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
         <v>880042</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="G83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
         <v>880043</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="G84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
         <v>880044</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+      <c r="G85" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
         <v>880045</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="G86" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
         <v>880045</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
+      <c r="G87" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
         <v>880045</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="G88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
         <v>880049</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+      <c r="G89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
         <v>880050</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="G90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
         <v>880052</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="G91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
         <v>880053</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+      <c r="G92" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
         <v>880053</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+      <c r="G93" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
         <v>880053</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="G94" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
         <v>880053</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="G95" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
         <v>880053</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+      <c r="G96" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
         <v>880055</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
+      <c r="G97" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
         <v>880055</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G72" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
+      <c r="G98" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
         <v>880055</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
+      <c r="G99" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
         <v>880057</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G74" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
+      <c r="G100" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
         <v>880057</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G75" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
+      <c r="G101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
         <v>880065</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G76" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
+      <c r="G102" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
         <v>880065</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
+      <c r="G103" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
         <v>880067</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
+      <c r="G104" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
         <v>880067</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
+      <c r="G105" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
         <v>880067</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
+      <c r="G106" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
         <v>880067</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
+      <c r="G107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
         <v>880071</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
+      <c r="G108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
         <v>880072</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G83" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
+      <c r="G109" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
         <v>880074</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
+      <c r="G110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
         <v>880075</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G85" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
+      <c r="G111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
         <v>880075</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G86" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
+      <c r="G112" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
         <v>880076</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G87" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
+      <c r="G113" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
         <v>880076</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G88" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
+      <c r="G114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
         <v>880076</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G89" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
+      <c r="G115" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
         <v>880078</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G90" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
+      <c r="G116" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
         <v>880079</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G91" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="8">
+      <c r="G117" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
         <v>880079</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G92" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
+      <c r="G118" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
         <v>880079</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G93" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
+      <c r="G119" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
         <v>880079</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G94" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
+      <c r="G120" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
         <v>880083</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G95" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
+      <c r="G121" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
         <v>880086</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G96" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
+      <c r="G122" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
         <v>880086</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G97" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
+      <c r="G123" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
         <v>880086</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G98" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
+      <c r="G124" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
         <v>880087</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G99" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
+      <c r="G125" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
         <v>880088</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G100" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
+      <c r="G126" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
         <v>880088</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G101" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
+      <c r="G127" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
         <v>880088</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G102" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="8">
+      <c r="G128" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
         <v>880089</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G103" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="8">
+      <c r="G129" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
         <v>880092</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G104" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="8">
+      <c r="G130" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
         <v>880092</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G105" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="8">
+      <c r="G131" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
         <v>880093</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G106" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="8">
+      <c r="G132" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
         <v>880093</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G107" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="8">
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
         <v>880096</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G108" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="8">
+      <c r="G134" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
         <v>880100</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G109" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="8">
+      <c r="G135" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="5">
         <v>880100</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G110" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="8">
+      <c r="G136" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="5">
         <v>880100</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G111" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="8">
+      <c r="G137" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="5">
         <v>880100</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G112" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="8">
+      <c r="G138" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
         <v>880101</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G113" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="8">
+      <c r="G139" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
         <v>880102</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G114" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="8">
+      <c r="G140" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="5">
         <v>880102</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G115" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="8">
+      <c r="G141" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
         <v>880107</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G116" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="8">
+      <c r="G142" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
         <v>880107</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G117" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="8">
+      <c r="G143" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
         <v>880107</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G118" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="8">
+      <c r="G144" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
         <v>880107</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G119" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="8">
+      <c r="G145" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="5">
         <v>880108</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G120" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="8">
+      <c r="G146" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="5">
         <v>880108</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G147" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{C5B36CAD-FD0A-4B42-A5F0-CEDAE9F551CA}"/>
+  <autoFilter ref="A1:G147" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G147">
+      <sortCondition ref="A1:A147"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4541,10 +6639,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF944944-0844-4FB8-99F2-9DEC0D345698}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4795,16 +6893,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>55306</v>
+        <v>55248</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="C18" s="12">
-        <v>59338</v>
+        <v>2847</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4815,65 +6913,79 @@
         <v>251</v>
       </c>
       <c r="C19" s="12">
-        <v>59784</v>
+        <v>59338</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>55375</v>
+        <v>55306</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C20" s="12">
-        <v>57664</v>
+        <v>59784</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>55481</v>
+        <v>55375</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C21" s="12">
-        <v>58557</v>
+        <v>57664</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>55508</v>
+        <v>55481</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C22" s="12">
-        <v>55874</v>
+        <v>58557</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
+        <v>55508</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="12">
+        <v>55874</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>70454</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B24" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C24" s="12">
         <v>54538</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D24" s="14" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4888,7 +7000,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
